--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.202205</v>
+        <v>11.78357933333333</v>
       </c>
       <c r="H2">
-        <v>6.606615000000001</v>
+        <v>35.350738</v>
       </c>
       <c r="I2">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="J2">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>3.851768857455</v>
+        <v>108.0878037626747</v>
       </c>
       <c r="R2">
-        <v>34.665919717095</v>
+        <v>972.790233864072</v>
       </c>
       <c r="S2">
-        <v>0.0001188909416204855</v>
+        <v>0.002500584874582234</v>
       </c>
       <c r="T2">
-        <v>0.0001188909416204855</v>
+        <v>0.002500584874582234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.202205</v>
+        <v>11.78357933333333</v>
       </c>
       <c r="H3">
-        <v>6.606615000000001</v>
+        <v>35.350738</v>
       </c>
       <c r="I3">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="J3">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>314.9936107284334</v>
+        <v>1685.470790190565</v>
       </c>
       <c r="R3">
-        <v>2834.942496555901</v>
+        <v>15169.23711171508</v>
       </c>
       <c r="S3">
-        <v>0.009722776306126679</v>
+        <v>0.03899295404090834</v>
       </c>
       <c r="T3">
-        <v>0.009722776306126682</v>
+        <v>0.03899295404090832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.202205</v>
+        <v>11.78357933333333</v>
       </c>
       <c r="H4">
-        <v>6.606615000000001</v>
+        <v>35.350738</v>
       </c>
       <c r="I4">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="J4">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>292.46342101046</v>
+        <v>1994.214194469467</v>
       </c>
       <c r="R4">
-        <v>2632.17078909414</v>
+        <v>17947.9277502252</v>
       </c>
       <c r="S4">
-        <v>0.009027346344052604</v>
+        <v>0.04613565710259691</v>
       </c>
       <c r="T4">
-        <v>0.009027346344052606</v>
+        <v>0.04613565710259691</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.202205</v>
+        <v>11.78357933333333</v>
       </c>
       <c r="H5">
-        <v>6.606615000000001</v>
+        <v>35.350738</v>
       </c>
       <c r="I5">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="J5">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>50.65669325250667</v>
+        <v>190.3085259165429</v>
       </c>
       <c r="R5">
-        <v>455.91023927256</v>
+        <v>1712.776733248886</v>
       </c>
       <c r="S5">
-        <v>0.001563599006859921</v>
+        <v>0.004402741149739986</v>
       </c>
       <c r="T5">
-        <v>0.001563599006859922</v>
+        <v>0.004402741149739984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.202205</v>
+        <v>11.78357933333333</v>
       </c>
       <c r="H6">
-        <v>6.606615000000001</v>
+        <v>35.350738</v>
       </c>
       <c r="I6">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="J6">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>118.0084178587417</v>
+        <v>645.0878438655114</v>
       </c>
       <c r="R6">
-        <v>1062.075760728675</v>
+        <v>5805.790594789602</v>
       </c>
       <c r="S6">
-        <v>0.003642516578120868</v>
+        <v>0.01492394931706444</v>
       </c>
       <c r="T6">
-        <v>0.003642516578120869</v>
+        <v>0.01492394931706444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.202205</v>
+        <v>11.78357933333333</v>
       </c>
       <c r="H7">
-        <v>6.606615000000001</v>
+        <v>35.350738</v>
       </c>
       <c r="I7">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="J7">
-        <v>0.0326200175043477</v>
+        <v>0.1729519501664551</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>276.8329891407201</v>
+        <v>2852.680448014602</v>
       </c>
       <c r="R7">
-        <v>2491.49690226648</v>
+        <v>25674.12403213141</v>
       </c>
       <c r="S7">
-        <v>0.008544888327567137</v>
+        <v>0.0659960636815632</v>
       </c>
       <c r="T7">
-        <v>0.008544888327567139</v>
+        <v>0.06599606368156319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>88.512508</v>
       </c>
       <c r="I8">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="J8">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>51.604296876636</v>
+        <v>270.6343102439947</v>
       </c>
       <c r="R8">
-        <v>464.438671889724</v>
+        <v>2435.708792195952</v>
       </c>
       <c r="S8">
-        <v>0.001592848292402502</v>
+        <v>0.006261058502262074</v>
       </c>
       <c r="T8">
-        <v>0.001592848292402502</v>
+        <v>0.006261058502262072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>88.512508</v>
       </c>
       <c r="I9">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="J9">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>4220.145186233698</v>
@@ -1013,10 +1013,10 @@
         <v>37981.30667610328</v>
       </c>
       <c r="S9">
-        <v>0.1302614600030799</v>
+        <v>0.09763202557438916</v>
       </c>
       <c r="T9">
-        <v>0.13026146000308</v>
+        <v>0.09763202557438914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>88.512508</v>
       </c>
       <c r="I10">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="J10">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>3918.295661529499</v>
+        <v>4993.188539421504</v>
       </c>
       <c r="R10">
-        <v>35264.66095376549</v>
+        <v>44938.69685479353</v>
       </c>
       <c r="S10">
-        <v>0.1209443967140097</v>
+        <v>0.115516194269519</v>
       </c>
       <c r="T10">
-        <v>0.1209443967140097</v>
+        <v>0.115516194269519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>88.512508</v>
       </c>
       <c r="I11">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="J11">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>678.6759886516835</v>
+        <v>476.5016482161196</v>
       </c>
       <c r="R11">
-        <v>6108.083897865152</v>
+        <v>4288.514833945076</v>
       </c>
       <c r="S11">
-        <v>0.02094840846688975</v>
+        <v>0.01102374895930856</v>
       </c>
       <c r="T11">
-        <v>0.02094840846688975</v>
+        <v>0.01102374895930856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>88.512508</v>
       </c>
       <c r="I12">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="J12">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>1581.024629070896</v>
+        <v>1615.195217164881</v>
       </c>
       <c r="R12">
-        <v>14229.22166163806</v>
+        <v>14536.75695448393</v>
       </c>
       <c r="S12">
-        <v>0.04880082731641786</v>
+        <v>0.03736714586604276</v>
       </c>
       <c r="T12">
-        <v>0.04880082731641786</v>
+        <v>0.03736714586604275</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>88.512508</v>
       </c>
       <c r="I13">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="J13">
-        <v>0.4370285782225414</v>
+        <v>0.4330436007509647</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>3708.886043152491</v>
+        <v>7142.648647853858</v>
       </c>
       <c r="R13">
-        <v>33379.97438837242</v>
+        <v>64283.83783068472</v>
       </c>
       <c r="S13">
-        <v>0.1144806374297417</v>
+        <v>0.1652434275794432</v>
       </c>
       <c r="T13">
-        <v>0.1144806374297417</v>
+        <v>0.1652434275794432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.928174666666667</v>
+        <v>0.4649586666666667</v>
       </c>
       <c r="H14">
-        <v>11.784524</v>
+        <v>1.394876</v>
       </c>
       <c r="I14">
-        <v>0.058185830286827</v>
+        <v>0.006824370242012605</v>
       </c>
       <c r="J14">
-        <v>0.05818583028682701</v>
+        <v>0.006824370242012604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>6.870577828908</v>
+        <v>4.264948679749334</v>
       </c>
       <c r="R14">
-        <v>61.835200460172</v>
+        <v>38.384538117744</v>
       </c>
       <c r="S14">
-        <v>0.0002120712581116366</v>
+        <v>9.866854342666815E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002120712581116367</v>
+        <v>9.866854342666814E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.928174666666667</v>
+        <v>0.4649586666666667</v>
       </c>
       <c r="H15">
-        <v>11.784524</v>
+        <v>1.394876</v>
       </c>
       <c r="I15">
-        <v>0.058185830286827</v>
+        <v>0.006824370242012605</v>
       </c>
       <c r="J15">
-        <v>0.05818583028682701</v>
+        <v>0.006824370242012604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>561.868637036649</v>
+        <v>66.50562016379557</v>
       </c>
       <c r="R15">
-        <v>5056.817733329841</v>
+        <v>598.55058147416</v>
       </c>
       <c r="S15">
-        <v>0.01734296469919637</v>
+        <v>0.001538591238484641</v>
       </c>
       <c r="T15">
-        <v>0.01734296469919637</v>
+        <v>0.00153859123848464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.928174666666667</v>
+        <v>0.4649586666666667</v>
       </c>
       <c r="H16">
-        <v>11.784524</v>
+        <v>1.394876</v>
       </c>
       <c r="I16">
-        <v>0.058185830286827</v>
+        <v>0.006824370242012605</v>
       </c>
       <c r="J16">
-        <v>0.05818583028682701</v>
+        <v>0.006824370242012604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>521.6804981098294</v>
+        <v>78.68807487766712</v>
       </c>
       <c r="R16">
-        <v>4695.124482988464</v>
+        <v>708.192673899004</v>
       </c>
       <c r="S16">
-        <v>0.01610249418920282</v>
+        <v>0.001820429345397032</v>
       </c>
       <c r="T16">
-        <v>0.01610249418920282</v>
+        <v>0.001820429345397031</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.928174666666667</v>
+        <v>0.4649586666666667</v>
       </c>
       <c r="H17">
-        <v>11.784524</v>
+        <v>1.394876</v>
       </c>
       <c r="I17">
-        <v>0.058185830286827</v>
+        <v>0.006824370242012605</v>
       </c>
       <c r="J17">
-        <v>0.05818583028682701</v>
+        <v>0.006824370242012604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>90.35868101816179</v>
+        <v>7.509229238619112</v>
       </c>
       <c r="R17">
-        <v>813.2281291634561</v>
+        <v>67.58306314757201</v>
       </c>
       <c r="S17">
-        <v>0.00278906369187805</v>
+        <v>0.0001737241797889683</v>
       </c>
       <c r="T17">
-        <v>0.002789063691878051</v>
+        <v>0.0001737241797889682</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.928174666666667</v>
+        <v>0.4649586666666667</v>
       </c>
       <c r="H18">
-        <v>11.784524</v>
+        <v>1.394876</v>
       </c>
       <c r="I18">
-        <v>0.058185830286827</v>
+        <v>0.006824370242012605</v>
       </c>
       <c r="J18">
-        <v>0.05818583028682701</v>
+        <v>0.006824370242012604</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>210.4970597587978</v>
+        <v>25.45399621642267</v>
       </c>
       <c r="R18">
-        <v>1894.47353782918</v>
+        <v>229.085965947804</v>
       </c>
       <c r="S18">
-        <v>0.006497324883508914</v>
+        <v>0.0005888719700162858</v>
       </c>
       <c r="T18">
-        <v>0.006497324883508916</v>
+        <v>0.0005888719700162856</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.928174666666667</v>
+        <v>0.4649586666666667</v>
       </c>
       <c r="H19">
-        <v>11.784524</v>
+        <v>1.394876</v>
       </c>
       <c r="I19">
-        <v>0.058185830286827</v>
+        <v>0.006824370242012605</v>
       </c>
       <c r="J19">
-        <v>0.05818583028682701</v>
+        <v>0.006824370242012604</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>493.7997756068055</v>
+        <v>112.5615961003365</v>
       </c>
       <c r="R19">
-        <v>4444.197980461249</v>
+        <v>1013.054364903028</v>
       </c>
       <c r="S19">
-        <v>0.01524191156492921</v>
+        <v>0.002604084964899011</v>
       </c>
       <c r="T19">
-        <v>0.01524191156492921</v>
+        <v>0.002604084964899011</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.64760533333333</v>
+        <v>23.45712566666667</v>
       </c>
       <c r="H20">
-        <v>82.94281599999999</v>
+        <v>70.371377</v>
       </c>
       <c r="I20">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="J20">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>48.35707175587199</v>
+        <v>215.1663025446653</v>
       </c>
       <c r="R20">
-        <v>435.213645802848</v>
+        <v>1936.496722901988</v>
       </c>
       <c r="S20">
-        <v>0.001492617549969942</v>
+        <v>0.004977819725566241</v>
       </c>
       <c r="T20">
-        <v>0.001492617549969942</v>
+        <v>0.00497781972556624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.64760533333333</v>
+        <v>23.45712566666667</v>
       </c>
       <c r="H21">
-        <v>82.94281599999999</v>
+        <v>70.371377</v>
       </c>
       <c r="I21">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="J21">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>3954.590527194951</v>
+        <v>3355.202949341203</v>
       </c>
       <c r="R21">
-        <v>35591.31474475456</v>
+        <v>30196.82654407082</v>
       </c>
       <c r="S21">
-        <v>0.1220646951832708</v>
+        <v>0.07762179870633629</v>
       </c>
       <c r="T21">
-        <v>0.1220646951832708</v>
+        <v>0.07762179870633629</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.64760533333333</v>
+        <v>23.45712566666667</v>
       </c>
       <c r="H22">
-        <v>82.94281599999999</v>
+        <v>70.371377</v>
       </c>
       <c r="I22">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="J22">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>3671.73502854353</v>
+        <v>3969.806766064182</v>
       </c>
       <c r="R22">
-        <v>33045.61525689178</v>
+        <v>35728.26089457764</v>
       </c>
       <c r="S22">
-        <v>0.1133339125683921</v>
+        <v>0.0918405075195198</v>
       </c>
       <c r="T22">
-        <v>0.1133339125683921</v>
+        <v>0.0918405075195198</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.64760533333333</v>
+        <v>23.45712566666667</v>
       </c>
       <c r="H23">
-        <v>82.94281599999999</v>
+        <v>70.371377</v>
       </c>
       <c r="I23">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="J23">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>635.9699766992782</v>
+        <v>378.8399841493355</v>
       </c>
       <c r="R23">
-        <v>5723.729790293503</v>
+        <v>3409.559857344019</v>
       </c>
       <c r="S23">
-        <v>0.01963021982115882</v>
+        <v>0.008764370273734199</v>
       </c>
       <c r="T23">
-        <v>0.01963021982115882</v>
+        <v>0.008764370273734197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.64760533333333</v>
+        <v>23.45712566666667</v>
       </c>
       <c r="H24">
-        <v>82.94281599999999</v>
+        <v>70.371377</v>
       </c>
       <c r="I24">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="J24">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>1481.537896321902</v>
+        <v>1284.151970427804</v>
       </c>
       <c r="R24">
-        <v>13333.84106689712</v>
+        <v>11557.36773385023</v>
       </c>
       <c r="S24">
-        <v>0.04573001186175201</v>
+        <v>0.02970854140923547</v>
       </c>
       <c r="T24">
-        <v>0.04573001186175202</v>
+        <v>0.02970854140923547</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.64760533333333</v>
+        <v>23.45712566666667</v>
       </c>
       <c r="H25">
-        <v>82.94281599999999</v>
+        <v>70.371377</v>
       </c>
       <c r="I25">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="J25">
-        <v>0.4095283454204445</v>
+        <v>0.3442889053136266</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>3475.502610796715</v>
+        <v>5678.723065633437</v>
       </c>
       <c r="R25">
-        <v>31279.52349717043</v>
+        <v>51108.50759070093</v>
       </c>
       <c r="S25">
-        <v>0.1072768884359008</v>
+        <v>0.1313758676792346</v>
       </c>
       <c r="T25">
-        <v>0.1072768884359008</v>
+        <v>0.1313758676792346</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5081476666666667</v>
+        <v>0.8572706666666666</v>
       </c>
       <c r="H26">
-        <v>1.524443</v>
+        <v>2.571812</v>
       </c>
       <c r="I26">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="J26">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>0.8887761845309999</v>
+        <v>7.863527793125333</v>
       </c>
       <c r="R26">
-        <v>7.998985660779</v>
+        <v>70.771750138128</v>
       </c>
       <c r="S26">
-        <v>2.743348351867904E-05</v>
+        <v>0.0001819207900969163</v>
       </c>
       <c r="T26">
-        <v>2.743348351867905E-05</v>
+        <v>0.0001819207900969163</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5081476666666667</v>
+        <v>0.8572706666666666</v>
       </c>
       <c r="H27">
-        <v>1.524443</v>
+        <v>2.571812</v>
       </c>
       <c r="I27">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="J27">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>72.6831826767089</v>
+        <v>122.6201841631022</v>
       </c>
       <c r="R27">
-        <v>654.14864409038</v>
+        <v>1103.58165746792</v>
       </c>
       <c r="S27">
-        <v>0.002243481462207299</v>
+        <v>0.00283678793687013</v>
       </c>
       <c r="T27">
-        <v>0.002243481462207299</v>
+        <v>0.00283678793687013</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5081476666666667</v>
+        <v>0.8572706666666666</v>
       </c>
       <c r="H28">
-        <v>1.524443</v>
+        <v>2.571812</v>
       </c>
       <c r="I28">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="J28">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>67.48445533990534</v>
+        <v>145.0816669204164</v>
       </c>
       <c r="R28">
-        <v>607.3600980591481</v>
+        <v>1305.735002283748</v>
       </c>
       <c r="S28">
-        <v>0.002083014515416228</v>
+        <v>0.003356428840731528</v>
       </c>
       <c r="T28">
-        <v>0.002083014515416228</v>
+        <v>0.003356428840731528</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5081476666666667</v>
+        <v>0.8572706666666666</v>
       </c>
       <c r="H29">
-        <v>1.524443</v>
+        <v>2.571812</v>
       </c>
       <c r="I29">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="J29">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>11.68877578486578</v>
+        <v>13.84519187844044</v>
       </c>
       <c r="R29">
-        <v>105.198982063792</v>
+        <v>124.606726905964</v>
       </c>
       <c r="S29">
-        <v>0.0003607925633345607</v>
+        <v>0.0003203051240909056</v>
       </c>
       <c r="T29">
-        <v>0.0003607925633345607</v>
+        <v>0.0003203051240909055</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5081476666666667</v>
+        <v>0.8572706666666666</v>
       </c>
       <c r="H30">
-        <v>1.524443</v>
+        <v>2.571812</v>
       </c>
       <c r="I30">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="J30">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>27.22984562379278</v>
+        <v>46.93097660103867</v>
       </c>
       <c r="R30">
-        <v>245.068610614135</v>
+        <v>422.378789409348</v>
       </c>
       <c r="S30">
-        <v>0.0008404922793140376</v>
+        <v>0.00108573665254225</v>
       </c>
       <c r="T30">
-        <v>0.0008404922793140377</v>
+        <v>0.00108573665254225</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5081476666666667</v>
+        <v>0.8572706666666666</v>
       </c>
       <c r="H31">
-        <v>1.524443</v>
+        <v>2.571812</v>
       </c>
       <c r="I31">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="J31">
-        <v>0.007526904071809893</v>
+        <v>0.01258247850049103</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>63.87781223283735</v>
+        <v>207.5361993395818</v>
       </c>
       <c r="R31">
-        <v>574.900310095536</v>
+        <v>1867.825794056236</v>
       </c>
       <c r="S31">
-        <v>0.001971689768019088</v>
+        <v>0.004801299156159297</v>
       </c>
       <c r="T31">
-        <v>0.001971689768019088</v>
+        <v>0.004801299156159297</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.720544666666667</v>
+        <v>2.064995</v>
       </c>
       <c r="H32">
-        <v>11.161634</v>
+        <v>6.194985000000001</v>
       </c>
       <c r="I32">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="J32">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>6.507422369777999</v>
+        <v>18.94167875626</v>
       </c>
       <c r="R32">
-        <v>58.56680132800199</v>
+        <v>170.47510880634</v>
       </c>
       <c r="S32">
-        <v>0.0002008618901333324</v>
+        <v>0.0004382111001265043</v>
       </c>
       <c r="T32">
-        <v>0.0002008618901333324</v>
+        <v>0.0004382111001265042</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.720544666666667</v>
+        <v>2.064995</v>
       </c>
       <c r="H33">
-        <v>11.161634</v>
+        <v>6.194985000000001</v>
       </c>
       <c r="I33">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="J33">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>532.170165098049</v>
+        <v>295.3677024555667</v>
       </c>
       <c r="R33">
-        <v>4789.53148588244</v>
+        <v>2658.3093221001</v>
       </c>
       <c r="S33">
-        <v>0.0164262743618113</v>
+        <v>0.006833259475067154</v>
       </c>
       <c r="T33">
-        <v>0.0164262743618113</v>
+        <v>0.006833259475067153</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.720544666666667</v>
+        <v>2.064995</v>
       </c>
       <c r="H34">
-        <v>11.161634</v>
+        <v>6.194985000000001</v>
       </c>
       <c r="I34">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="J34">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>494.1062349942693</v>
+        <v>349.4729592781184</v>
       </c>
       <c r="R34">
-        <v>4446.956114948424</v>
+        <v>3145.256633503066</v>
       </c>
       <c r="S34">
-        <v>0.01525137091892796</v>
+        <v>0.008084971343900411</v>
       </c>
       <c r="T34">
-        <v>0.01525137091892796</v>
+        <v>0.008084971343900411</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.720544666666667</v>
+        <v>2.064995</v>
       </c>
       <c r="H35">
-        <v>11.161634</v>
+        <v>6.194985000000001</v>
       </c>
       <c r="I35">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="J35">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>85.58262737192177</v>
+        <v>33.35032110008834</v>
       </c>
       <c r="R35">
-        <v>770.243646347296</v>
+        <v>300.1528899007951</v>
       </c>
       <c r="S35">
-        <v>0.002641643237472431</v>
+        <v>0.0007715515127724339</v>
       </c>
       <c r="T35">
-        <v>0.002641643237472432</v>
+        <v>0.0007715515127724338</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.720544666666667</v>
+        <v>2.064995</v>
       </c>
       <c r="H36">
-        <v>11.161634</v>
+        <v>6.194985000000001</v>
       </c>
       <c r="I36">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="J36">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>199.3708985703478</v>
+        <v>113.047414071785</v>
       </c>
       <c r="R36">
-        <v>1794.33808713313</v>
+        <v>1017.426726646065</v>
       </c>
       <c r="S36">
-        <v>0.006153898310090346</v>
+        <v>0.002615324244715186</v>
       </c>
       <c r="T36">
-        <v>0.006153898310090347</v>
+        <v>0.002615324244715186</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.720544666666667</v>
+        <v>2.064995</v>
       </c>
       <c r="H37">
-        <v>11.161634</v>
+        <v>6.194985000000001</v>
       </c>
       <c r="I37">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="J37">
-        <v>0.05511032449402945</v>
+        <v>0.03030869502644999</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>467.6991929928854</v>
+        <v>499.9135402843284</v>
       </c>
       <c r="R37">
-        <v>4209.292736935969</v>
+        <v>4499.221862558956</v>
       </c>
       <c r="S37">
-        <v>0.01443627577559408</v>
+        <v>0.0115653773498683</v>
       </c>
       <c r="T37">
-        <v>0.01443627577559408</v>
+        <v>0.0115653773498683</v>
       </c>
     </row>
   </sheetData>
